--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.020321-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.020321-1.xlsx_with_dialog_acts.xlsx
@@ -737,12 +737,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3853,12 +3853,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4043,12 +4043,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4309,12 +4309,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4541,12 +4541,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4655,12 +4655,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4731,12 +4731,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4845,12 +4845,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5187,12 +5187,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5225,12 +5225,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6027,12 +6027,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6179,12 +6179,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7015,12 +7015,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7167,12 +7167,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8083,12 +8083,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8349,12 +8349,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8771,12 +8771,12 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8923,12 +8923,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9189,12 +9189,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9505,12 +9505,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9543,12 +9543,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9581,12 +9581,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9695,12 +9695,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9733,12 +9733,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10649,12 +10649,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10991,12 +10991,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11637,12 +11637,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12055,12 +12055,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12131,12 +12131,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12397,12 +12397,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12667,12 +12667,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13089,12 +13089,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13241,12 +13241,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13279,12 +13279,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13591,12 +13591,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13705,12 +13705,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13933,12 +13933,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14887,12 +14887,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15001,12 +15001,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15229,12 +15229,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16525,12 +16525,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16867,12 +16867,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17247,12 +17247,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17437,12 +17437,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17475,12 +17475,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18665,12 +18665,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18703,12 +18703,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19547,12 +19547,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19969,12 +19969,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20391,12 +20391,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20467,12 +20467,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20661,12 +20661,12 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21155,12 +21155,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21349,12 +21349,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21463,12 +21463,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22223,12 +22223,12 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22451,12 +22451,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
